--- a/src/aegis/etls/call_summary/config/categories/us_banks_categories.xlsx
+++ b/src/aegis/etls/call_summary/config/categories/us_banks_categories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>transcripts_section</t>
+          <t>transcript_sections</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,12 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>report_section</t>
+          <t>category_description</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>category_description</t>
+          <t>example_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>example_2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>example_3</t>
         </is>
       </c>
     </row>
@@ -468,14 +478,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Results Summary</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Overall financial results including revenue, net income, EPS, ROE, ROA, and key performance indicators</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -490,14 +498,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Results Summary</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>Detailed breakdown of revenue streams including net interest income, non-interest income, fee income, trading revenue, and wealth management income</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -512,14 +518,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Results Summary</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Operating expenses, cost control initiatives, efficiency ratio, compensation costs, and technology investments</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -534,14 +538,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q&amp;A Summary</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Loan loss provisions, net charge-offs, non-performing loans, coverage ratios, and credit risk indicators</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -556,14 +558,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Results Summary</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>Capital ratios (CET1, Tier 1), liquidity coverage ratio, leverage ratio, and regulatory capital requirements</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -578,14 +578,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q&amp;A Summary</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>Loan growth by category, commercial loans, consumer loans, mortgage portfolio, and lending pipeline</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -600,14 +598,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Results Summary</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>Deposit growth, deposit mix, funding costs, deposit betas, and customer acquisition/retention</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -622,14 +618,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Results Summary</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Performance by division including retail banking, commercial banking, investment banking, wealth management, and capital markets</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -644,14 +638,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Results Summary</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>Commentary on economic environment, interest rate outlook, inflation impacts, and market trends</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -666,14 +658,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q&amp;A Summary</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Management guidance for future quarters, strategic priorities, growth targets, and forward-looking statements</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -688,14 +678,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Results Summary</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>Regulatory changes, compliance matters, stress test results, and regulatory interactions</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -710,14 +698,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q&amp;A Summary</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>Digital transformation efforts, technology investments, AI/ML initiatives, and fintech partnerships</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -732,14 +718,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Results Summary</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>Mergers, acquisitions, divestitures, strategic partnerships, and business transformation initiatives</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -754,14 +738,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Results Summary</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>Environmental, social, and governance initiatives, climate risk management, and sustainability targets</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -776,14 +758,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q&amp;A Summary</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>Discussion of operational risks, credit risks, market risks, regulatory risks, and mitigation strategies</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/aegis/etls/call_summary/config/categories/us_banks_categories.xlsx
+++ b/src/aegis/etls/call_summary/config/categories/us_banks_categories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>report_section</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>category_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>category_description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>example_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>example_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>example_3</t>
         </is>
@@ -473,17 +478,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Financial Performance &amp; Metrics</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Overall financial results including revenue, net income, EPS, ROE, ROA, and key performance indicators</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -493,17 +503,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Revenue &amp; Income Breakdown</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Detailed breakdown of revenue streams including net interest income, non-interest income, fee income, trading revenue, and wealth management income</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -513,17 +528,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Expense Management &amp; Efficiency</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Operating expenses, cost control initiatives, efficiency ratio, compensation costs, and technology investments</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -533,17 +553,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Earnings Call Q&amp;A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Credit Quality &amp; Risk Metrics</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Loan loss provisions, net charge-offs, non-performing loans, coverage ratios, and credit risk indicators</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -553,17 +578,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Capital &amp; Liquidity Position</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Capital ratios (CET1, Tier 1), liquidity coverage ratio, leverage ratio, and regulatory capital requirements</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,17 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Loan Portfolio &amp; Growth</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Loan growth by category, commercial loans, consumer loans, mortgage portfolio, and lending pipeline</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -593,17 +628,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Deposits &amp; Funding</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Deposit growth, deposit mix, funding costs, deposit betas, and customer acquisition/retention</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -613,17 +653,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Business Segment Performance</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Performance by division including retail banking, commercial banking, investment banking, wealth management, and capital markets</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -633,17 +678,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Earnings Call Q&amp;A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Market Conditions &amp; Economic Outlook</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Commentary on economic environment, interest rate outlook, inflation impacts, and market trends</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -653,17 +703,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Forward Guidance &amp; Outlook</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Management guidance for future quarters, strategic priorities, growth targets, and forward-looking statements</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -673,17 +728,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Regulatory &amp; Compliance Updates</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Regulatory changes, compliance matters, stress test results, and regulatory interactions</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -693,17 +753,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Digital &amp; Technology Initiatives</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Digital transformation efforts, technology investments, AI/ML initiatives, and fintech partnerships</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -713,17 +778,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Strategic Initiatives &amp; M&amp;A</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Mergers, acquisitions, divestitures, strategic partnerships, and business transformation initiatives</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -733,17 +803,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>ESG &amp; Sustainability</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Environmental, social, and governance initiatives, climate risk management, and sustainability targets</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -753,17 +828,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Earnings Call Q&amp;A</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Key Risks &amp; Challenges</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Discussion of operational risks, credit risks, market risks, regulatory risks, and mitigation strategies</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/aegis/etls/call_summary/config/categories/us_banks_categories.xlsx
+++ b/src/aegis/etls/call_summary/config/categories/us_banks_categories.xlsx
@@ -491,9 +491,6 @@
           <t>Overall financial results including revenue, net income, EPS, ROE, ROA, and key performance indicators</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,12 +510,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Detailed breakdown of revenue streams including net interest income, non-interest income, fee income, trading revenue, and wealth management income</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>Detailed breakdown of revenue streams including net interest income, non-interest income, fee income, trading revenue, wealth management income, and investment banking fees (advisory, equity underwriting, debt underwriting)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Advisory revenue and M&amp;A deal pipeline</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Equity and debt underwriting fees and market share</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FICC and equities trading revenue</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -541,9 +550,6 @@
           <t>Operating expenses, cost control initiatives, efficiency ratio, compensation costs, and technology investments</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -566,9 +572,6 @@
           <t>Loan loss provisions, net charge-offs, non-performing loans, coverage ratios, and credit risk indicators</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -591,9 +594,6 @@
           <t>Capital ratios (CET1, Tier 1), liquidity coverage ratio, leverage ratio, and regulatory capital requirements</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -616,9 +616,6 @@
           <t>Loan growth by category, commercial loans, consumer loans, mortgage portfolio, and lending pipeline</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -641,9 +638,6 @@
           <t>Deposit growth, deposit mix, funding costs, deposit betas, and customer acquisition/retention</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -663,12 +657,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Performance by division including retail banking, commercial banking, investment banking, wealth management, and capital markets</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>Performance by business segment — segment names vary by bank (e.g., CIB, CCB, Institutional Securities, Global Markets). Include revenue, earnings, and growth metrics for each reported division and sub-segment activities such as advisory, underwriting, trading, and asset management</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>JPM: Consumer &amp; Community Banking (CCB), Corporate &amp; Investment Bank (CIB), Asset &amp; Wealth Management (AWM)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>GS: Global Banking &amp; Markets, Asset &amp; Wealth Management, Platform Solutions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>MS: Institutional Securities, Wealth Management, Investment Management</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -688,12 +694,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Commentary on economic environment, interest rate outlook, inflation impacts, and market trends</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>Commentary on economic environment, Federal Reserve policy and rate outlook, inflation impacts, credit cycle dynamics, consumer spending trends, and broader market conditions</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Federal Reserve rate trajectory and monetary policy impact</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Consumer sentiment, spending trends, and credit cycle positioning</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Capital markets environment including IPO and M&amp;A activity levels</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -716,9 +734,6 @@
           <t>Management guidance for future quarters, strategic priorities, growth targets, and forward-looking statements</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -741,9 +756,6 @@
           <t>Regulatory changes, compliance matters, stress test results, and regulatory interactions</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -766,9 +778,6 @@
           <t>Digital transformation efforts, technology investments, AI/ML initiatives, and fintech partnerships</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -791,9 +800,6 @@
           <t>Mergers, acquisitions, divestitures, strategic partnerships, and business transformation initiatives</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -816,9 +822,6 @@
           <t>Environmental, social, and governance initiatives, climate risk management, and sustainability targets</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -841,9 +844,6 @@
           <t>Discussion of operational risks, credit risks, market risks, regulatory risks, and mitigation strategies</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
